--- a/03.crawler/09.FourSeasons/file/1.part_number/crawler_2.xlsx
+++ b/03.crawler/09.FourSeasons/file/1.part_number/crawler_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24100" windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,49 +53,49 @@
     <t>90001</t>
   </si>
   <si>
-    <t>https://www.4s.com/en/ecatalog?part=90001&amp;type=p&amp;search=s</t>
+    <t>https://www.4s.com/en/ecatalog?part=93001&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>90002</t>
   </si>
   <si>
-    <t>https://www.4s.com/en/ecatalog?part=90002&amp;type=p&amp;search=s</t>
+    <t>https://www.4s.com/en/ecatalog?part=93002&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>90003</t>
   </si>
   <si>
-    <t>https://www.4s.com/en/ecatalog?part=90003&amp;type=p&amp;search=s</t>
+    <t>https://www.4s.com/en/ecatalog?part=93003&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>90004</t>
   </si>
   <si>
-    <t>https://www.4s.com/en/ecatalog?part=90004&amp;type=p&amp;search=s</t>
+    <t>https://www.4s.com/en/ecatalog?part=93004&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>90005</t>
   </si>
   <si>
-    <t>https://www.4s.com/en/ecatalog?part=90005&amp;type=p&amp;search=s</t>
+    <t>https://www.4s.com/en/ecatalog?part=93005&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>90007</t>
   </si>
   <si>
-    <t>https://www.4s.com/en/ecatalog?part=90007&amp;type=p&amp;search=s</t>
+    <t>https://www.4s.com/en/ecatalog?part=93007&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>90009</t>
   </si>
   <si>
-    <t>https://www.4s.com/en/ecatalog?part=90009&amp;type=p&amp;search=s</t>
+    <t>https://www.4s.com/en/ecatalog?part=93009&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>90010</t>
   </si>
   <si>
-    <t>https://www.4s.com/en/ecatalog?part=90010&amp;type=p&amp;search=s</t>
+    <t>https://www.4s.com/en/ecatalog?part=93010&amp;type=p&amp;search=s</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD719"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
